--- a/[Part 4] 인터넷 활용 자동화/[Chapter 9] 인터넷 자동화 초급 - 매크로 활용/4_9_4_매크로를 활용해 뉴스 기사를 자동으로 트위터에 올려주는 뉴스 봇 만들기/test.xlsx
+++ b/[Part 4] 인터넷 활용 자동화/[Chapter 9] 인터넷 자동화 초급 - 매크로 활용/4_9_4_매크로를 활용해 뉴스 기사를 자동으로 트위터에 올려주는 뉴스 봇 만들기/test.xlsx
@@ -18,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +50,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,101 +420,170 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>조선비즈
-美 기준금리 0.75%p 인상 유력…”연말까지 韓·美 금리역전” - 조선비즈
-연준 인사들과 시장의 예상대로 연준이 움직일 경우 미국의 기준금리는 27일에 1.5∼1.75%에서 2.25∼2.5%로 오르게 된다. 이는 현재 한국의 기준금리(...</t>
-        </is>
-      </c>
+          <t>언론사</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>제목</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>요약</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>미디어펜
-'미국 기준금리 0.75%p 인상 유력'…한미 역전 상태 불가피
-[미디어펜=김준희 기자]미국 연방준비제도(Fed·연준)가 이달 통화정책회의에서 기준금리를 0.75%포인트 이상 인상하는 것이 확실시되고 있다.</t>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>美 기준금리 0.75%p 인상 유력…”연말까지 韓·美 금리역전” - 조선비즈</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>미국 연방준비제도(Fed·연준)가 이달 통화정책회의에서 기준금리를 0.75%포인트 인상할 것이 유력해지면서 한국과 미국 간 기준금리 역전이 현실화될...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>경향신문
-미 연준 FOMC에 쏠리는 관심…“금리 1%p 인상보다 0.75%p ...
-지난달 미국 소비자물가지수(CPI) 상승률이 예상보다 높게 나오면서 미국 중앙은행인 연방준비제도(Fed·연준)가 기준금리를 단번에 1%포인트 올리는...</t>
+          <t>한겨레</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>“미 연준 7월 기준금리 인상폭 0.75%p 유력”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>미국의 6월 소비자물가지수가 9.1%나 뛰었다는 소식에 연방준비제도(Fed)가 기준금리 1.0%포인트 인상이라는 "울트라 스텝"을 밟을 것이라는 전망이...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>동아일보
-미국 금리인상 1%p에서 0.75%p로 급선회하는 분위기
-전일 6월 CPI가 9.1%를 기록하자 시카고상품거래소(CME)에서 거래되는 연방기금금리(미국의 기준금리) 선물이 1%포인트의 금리인상 가능성을 80% 넘게...</t>
+          <t>동아일보</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>미국 금리인상 1%p에서 0.75%p로 급선회하는 분위기</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>전일 미국 소비자물가지수(CPI)가 9.1% 기록, 41년래 최고치를 보인 것은 물론, 시장의 예상치(8.8%)를 상회하자 연준이 다음 공개시장위원회(FOMC)...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>조선일보
-선진국서 번지는 ‘울트라 스텝’… 세계경제 금리인상 요동 - 조선일보
-13일(현지 시각) 미국 소비자물가 상승률이 9.1%로 발표된 지 몇 시간 후 캐나다중앙은행은 곧바로 기준금리를 연 1.5%에서 2.5%로 1%포인트 올렸다.</t>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>美 물가급등에 연준 1.0%p ‘울트라 빅스텝’ 금리인상 가능성↑ - 조선비즈</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>애틀랜타 연은 총재“1.0%포인트의 금리인상도 가능” 노무라 증권도 이달 FOMC서 1%p 인상 점쳐. 이용성 기자. 입력 2022.07.14 08:30. 미국의 중앙은행인 미국 연방...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>매일경제
-미국 물가 깜짝 상승세에 연준 기준금리 `1%p 인상` 카드 급부상
-미국의 물가 상승률이 예상을 뛰어넘으면서 연방준비제도(Fed·연준)가 이달 말 통화정책 회의에서 기준금리 1%포인트 인상이라는 '초강수'를 내놓을...</t>
+          <t>BBC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>금리: 미 연준의 기준금리 인상이 나와 상관있는 5가지 이유</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>미국 중앙은행인 연방준비제도(Fed)가 치솟는 소비자 물가를 잡기 위해 지난 15일(현지시간) 기준금리 0.75%p 인상을 단행했다.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>한국경제
-"미국 기준금리 3.75%까지 오르면 한국 GDP 0.7%↓·환율 16%↑"
-미국 중앙은행인 연방준비제도(Fed·연준)가 올 연말까지 기준금리를 3%대 후반까지 인상할 경우 우리나라 국내총생산(GDP)이 감소하고 원/달러 환율은 16%...</t>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>미국 금리 인상기...세계 경제 위기 다시 올까?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>... □ 미국 금리 인상기에 글로벌 경제에서 벌어질 일들 미국 연방준비제도(연준·Fed)의 정책금리 인상이 잇따라 예고되고 있다. 미국의 금리 인상은...</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BBC
-금리: 미 연준의 기준금리 인상이 나와 상관있는 5가지 이유
-미국 중앙은행인 연방준비제도(Fed)가 치솟는 소비자 물가를 잡기 위해 지난 15일(현지시간) 기준금리 0.75%p 인상을 단행했다.</t>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[한은 빅스텝] 0.50%p 올렸지만…이달 한미 금리역전 못막을듯</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>26∼27일 FOMC…미국 자이언트 스텝 밟으면 2년반만에 미국 우위로 자본유출·원화약세·물가상승 우려…한은 "급격한 유출 가능성 작아"</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>한겨레
-외환위기 이후 한-미 '금리역전' 3차례…미 급속 인상기에 역전
-이달 7월 말에 한-미 기준금리 역전이 일어날 가능성이 높아진 가운데 1998년 이후 미국 기준금리(연방기금금리)가 우리보다 더 높은 '금리 역전'이...</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>한국경제TV
-미국 기준금리 1%p 인상 가능성, 왜 낮아졌을까 [신인규의 ...
-월러 Fed 이사, 100bp 인상론 진화 "시장이 너무 앞서간 것…75bp 인상 지지" "인상폭 관건은 소매판매·주택시장".</t>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>미국 기준금리 1%p 인상 가능성, 왜 낮아졌을까 [신인규의 글로벌마켓 A/S]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>월러 Fed 이사, 100bp 인상론 진화 "시장이 너무 앞서간 것…75bp 인상 지지" "인상폭 관건은 소매판매·주택시장".</t>
         </is>
       </c>
     </row>

--- a/[Part 4] 인터넷 활용 자동화/[Chapter 9] 인터넷 자동화 초급 - 매크로 활용/4_9_4_매크로를 활용해 뉴스 기사를 자동으로 트위터에 올려주는 뉴스 봇 만들기/test.xlsx
+++ b/[Part 4] 인터넷 활용 자동화/[Chapter 9] 인터넷 자동화 초급 - 매크로 활용/4_9_4_매크로를 활용해 뉴스 기사를 자동으로 트위터에 올려주는 뉴스 봇 만들기/test.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>언론사</t>
         </is>
@@ -449,141 +449,89 @@
           <t>요약</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>조선비즈</t>
+          <t>한국경제TV</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>美 기준금리 0.75%p 인상 유력…”연말까지 韓·美 금리역전” - 조선비즈</t>
+          <t>클리블랜드 연은 연준 기준금리 4 위로 올려야글로벌 시황이슈</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>미국 연방준비제도(Fed·연준)가 이달 통화정책회의에서 기준금리를 0.75%포인트 인상할 것이 유력해지면서 한국과 미국 간 기준금리 역전이 현실화될...</t>
+          <t>클리블랜드 연은 “연준, 기준금리 4% 위로 올려야” 어제오늘, 연준 위원들의 매파적인 발언들이 이어지고 있습니다. 오늘은 클리블랜드 연은 총재의...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>한겨레</t>
+          <t>파이낸셜뉴스</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>“미 연준 7월 기준금리 인상폭 0.75%p 유력”</t>
+          <t>메스터 연은총재 “기준금리 4% 이상 가며, 내년 금리인하 없다”</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>미국의 6월 소비자물가지수가 9.1%나 뛰었다는 소식에 연방준비제도(Fed)가 기준금리 1.0%포인트 인상이라는 "울트라 스텝"을 밟을 것이라는 전망이...</t>
+          <t>(서울=뉴스1) 박형기 기자 = 로레타 메스터 클리브랜드 연은총재가 “미국의 기준금리가 내년 초 4% 이상 올라가고, 내년에 금리인하는 없다”고...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>코인리더스</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>미국 금리인상 1%p에서 0.75%p로 급선회하는 분위기</t>
+          <t>CME 페드워치 ˝9월 기준금리 75bp 인상 가능성 72.0%...50bp 확률은 28.0%˝</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>전일 미국 소비자물가지수(CPI)가 9.1% 기록, 41년래 최고치를 보인 것은 물론, 시장의 예상치(8.8%)를 상회하자 연준이 다음 공개시장위원회(FOMC)...</t>
+          <t>8월 31일(현지시간) 시카고상품거래소(CME) 그룹의 페드워치에 따르면 이날 오전 4시 30분(미국 중부 표준시 기준) 현재 미 연방준비제도(Fed·연준)가...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>조선비즈</t>
+          <t>뉴스1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>美 물가급등에 연준 1.0%p ‘울트라 빅스텝’ 금리인상 가능성↑ - 조선비즈</t>
+          <t>메스터 연은총재 “기준금리 4% 이상 가며, 내년 금리인하 없다”</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>애틀랜타 연은 총재“1.0%포인트의 금리인상도 가능” 노무라 증권도 이달 FOMC서 1%p 인상 점쳐. 이용성 기자. 입력 2022.07.14 08:30. 미국의 중앙은행인 미국 연방...</t>
+          <t>로레타 메스터 클리브랜드 연은총재가 “미국의 기준금리가 내년 초 4% 이상 올라가고, 내년에 금리인하는 없다”고 말했다고 경제전문 매체 CNBC가...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BBC</t>
+          <t>데일리임팩트</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>금리: 미 연준의 기준금리 인상이 나와 상관있는 5가지 이유</t>
+          <t>"또 역전" 한미 기준금리에…엄습하는 9월 "긴축 공포"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>미국 중앙은행인 연방준비제도(Fed)가 치솟는 소비자 물가를 잡기 위해 지난 15일(현지시간) 기준금리 0.75%p 인상을 단행했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>문화일보</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>미국 금리 인상기...세계 경제 위기 다시 올까?</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>... □ 미국 금리 인상기에 글로벌 경제에서 벌어질 일들 미국 연방준비제도(연준·Fed)의 정책금리 인상이 잇따라 예고되고 있다. 미국의 금리 인상은...</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>한국경제</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[한은 빅스텝] 0.50%p 올렸지만…이달 한미 금리역전 못막을듯</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>26∼27일 FOMC…미국 자이언트 스텝 밟으면 2년반만에 미국 우위로 자본유출·원화약세·물가상승 우려…한은 "급격한 유출 가능성 작아"</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>한국경제TV</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>미국 기준금리 1%p 인상 가능성, 왜 낮아졌을까 [신인규의 글로벌마켓 A/S]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>월러 Fed 이사, 100bp 인상론 진화 "시장이 너무 앞서간 것…75bp 인상 지지" "인상폭 관건은 소매판매·주택시장".</t>
+          <t>한미 간 기준금리 역전은 기정사실로 된 상황에서, 미국 연준이 시장의 예상보다 큰 폭의 금리 인상이 가능할 수도 있다는 시그널을 보낸 점은 또 한번의...</t>
         </is>
       </c>
     </row>
